--- a/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ABB9F4B-51FF-4CEA-9B6A-DCCABCE516D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D195CA-38EE-4B4C-80FD-E23E5D4D1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA128F86-691A-4644-9242-8E20EF4CB5E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A8BAB35-6FFE-4618-AD34-4A0CF61A5064}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,43 +197,49 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>4,78%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>95,22%</t>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>98,99%</t>
+    <t>99,07%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -242,1597 +248,1591 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>1,22%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>9,66%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
     <t>88,56%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>92,21%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19CD9AE-5EBF-4185-852E-601A80DB1F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ACFD28-8079-4790-BFA9-8DEF0EF5657F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2696,10 +2696,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2708,10 +2708,10 @@
         <v>11832</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>32</v>
@@ -2729,13 +2729,13 @@
         <v>315108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -2744,13 +2744,13 @@
         <v>327318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -2759,13 +2759,13 @@
         <v>642426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2821,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2833,13 +2833,13 @@
         <v>9228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2848,13 +2848,13 @@
         <v>15695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2863,13 +2863,13 @@
         <v>24923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,10 +2884,10 @@
         <v>349443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>77</v>
@@ -3003,13 +3003,13 @@
         <v>10447</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3018,13 +3018,13 @@
         <v>15084</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3039,13 @@
         <v>198671</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -3054,13 +3054,13 @@
         <v>197221</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -3069,13 +3069,13 @@
         <v>395892</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,7 +3131,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3158,13 +3158,13 @@
         <v>12061</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3173,13 +3173,13 @@
         <v>12061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3194,10 @@
         <v>270811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3209,13 +3209,13 @@
         <v>266083</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3224,13 +3224,13 @@
         <v>536894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +3286,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3298,13 +3298,13 @@
         <v>19782</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3313,13 +3313,13 @@
         <v>37055</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3328,13 +3328,13 @@
         <v>56836</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3349,13 @@
         <v>595245</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>584</v>
@@ -3364,13 +3364,13 @@
         <v>601164</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3379,13 +3379,13 @@
         <v>1196410</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3453,13 +3453,13 @@
         <v>51923</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -3468,13 +3468,13 @@
         <v>69152</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3483,13 +3483,13 @@
         <v>121075</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,10 +3504,10 @@
         <v>691872</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>148</v>
@@ -3608,7 +3608,7 @@
         <v>111838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>155</v>
@@ -3686,7 +3686,7 @@
         <v>6177</v>
       </c>
       <c r="N29" s="7">
-        <v>6317354</v>
+        <v>6317355</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>168</v>
@@ -3737,7 +3737,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3775,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BD7C53-96A2-4B45-884E-19B4B9BE2CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2F53C8-D22B-4B6A-892C-6B2A768700E6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4042,7 +4042,7 @@
         <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4051,13 +4051,13 @@
         <v>49262</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -4066,13 +4066,13 @@
         <v>74481</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4087,13 @@
         <v>480308</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -4102,13 +4102,13 @@
         <v>474503</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -4117,13 +4117,13 @@
         <v>954811</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4191,13 @@
         <v>9108</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4206,13 +4206,13 @@
         <v>28669</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4221,13 +4221,13 @@
         <v>37777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4242,13 @@
         <v>314938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -4257,13 +4257,13 @@
         <v>312351</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -4272,13 +4272,13 @@
         <v>627289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4346,13 @@
         <v>28125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4361,13 +4361,13 @@
         <v>81033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4376,13 +4376,13 @@
         <v>109158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4397,13 @@
         <v>640595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>550</v>
@@ -4412,13 +4412,13 @@
         <v>595163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1150</v>
@@ -4427,13 +4427,13 @@
         <v>1235758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4501,13 @@
         <v>18635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4516,13 +4516,13 @@
         <v>38301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4531,13 +4531,13 @@
         <v>56935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4552,13 @@
         <v>193983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -4567,13 +4567,13 @@
         <v>181290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>356</v>
@@ -4582,13 +4582,13 @@
         <v>375274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4644,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4656,13 +4656,13 @@
         <v>13464</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4671,13 +4671,13 @@
         <v>18648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4686,13 +4686,13 @@
         <v>32112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4707,13 @@
         <v>260517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -4725,10 +4725,10 @@
         <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -4737,13 +4737,13 @@
         <v>521900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4799,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4811,13 +4811,13 @@
         <v>21246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4826,13 +4826,13 @@
         <v>68542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -4841,13 +4841,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4862,13 @@
         <v>641542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -4877,13 +4877,13 @@
         <v>625311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1173</v>
@@ -4892,13 +4892,13 @@
         <v>1266853</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,7 +4954,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4966,13 +4966,13 @@
         <v>14055</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -4981,13 +4981,13 @@
         <v>66551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -4996,13 +4996,13 @@
         <v>80606</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5017,13 @@
         <v>765043</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -5032,13 +5032,13 @@
         <v>757302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1400</v>
@@ -5047,13 +5047,13 @@
         <v>1522345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5121,13 @@
         <v>129852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5136,13 +5136,13 @@
         <v>351006</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M28" s="7">
         <v>441</v>
@@ -5151,13 +5151,13 @@
         <v>480858</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5172,13 @@
         <v>3296927</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H29" s="7">
         <v>2975</v>
@@ -5187,13 +5187,13 @@
         <v>3207303</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="M29" s="7">
         <v>6066</v>
@@ -5202,13 +5202,13 @@
         <v>6504230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9225C799-4622-45AA-BD93-6851EB42BD09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3D7B3-C136-4FDC-903C-63F0683D9EB6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5305,7 +5305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5412,13 +5412,13 @@
         <v>13823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -5427,13 +5427,13 @@
         <v>38772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -5442,13 +5442,13 @@
         <v>52596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5463,13 @@
         <v>279938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>242</v>
@@ -5478,13 +5478,13 @@
         <v>249931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>494</v>
@@ -5493,13 +5493,13 @@
         <v>529868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5567,13 @@
         <v>7652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5582,13 +5582,13 @@
         <v>30353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5597,13 +5597,13 @@
         <v>38005</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5618,13 @@
         <v>494923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5633,13 +5633,13 @@
         <v>492731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>925</v>
@@ -5648,13 +5648,13 @@
         <v>987654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5722,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5737,13 +5737,13 @@
         <v>20782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5752,13 +5752,13 @@
         <v>25666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5773,13 @@
         <v>313680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -5788,13 +5788,13 @@
         <v>315527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>356</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -5803,13 +5803,13 @@
         <v>629208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +5865,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5877,13 +5877,13 @@
         <v>19501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5892,13 +5892,13 @@
         <v>51804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5907,13 +5907,13 @@
         <v>71305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5928,13 @@
         <v>350463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5943,13 +5943,13 @@
         <v>335479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
@@ -5958,13 +5958,13 @@
         <v>685942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6032,13 @@
         <v>9505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6047,13 +6047,13 @@
         <v>23124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -6062,13 +6062,13 @@
         <v>32629</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6083,13 @@
         <v>201716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -6098,13 +6098,13 @@
         <v>195463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6113,13 +6113,13 @@
         <v>397179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6175,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6187,13 @@
         <v>9883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6202,13 +6202,13 @@
         <v>18096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -6217,13 +6217,13 @@
         <v>27979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6238,13 @@
         <v>253240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6253,13 +6253,13 @@
         <v>255019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>26</v>
+        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -6268,13 +6268,13 @@
         <v>508259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +6330,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6342,13 +6342,13 @@
         <v>27437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -6357,13 +6357,13 @@
         <v>74432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -6372,13 +6372,13 @@
         <v>101868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6393,13 @@
         <v>629121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -6408,13 +6408,13 @@
         <v>616862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>1134</v>
@@ -6423,13 +6423,13 @@
         <v>1245984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>419</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6485,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6497,13 @@
         <v>26799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6512,13 +6512,13 @@
         <v>89828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6527,13 +6527,13 @@
         <v>116628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6548,13 @@
         <v>751784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -6563,13 +6563,13 @@
         <v>736339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M26" s="7">
         <v>1404</v>
@@ -6578,13 +6578,13 @@
         <v>1488122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6652,13 @@
         <v>119484</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -6667,13 +6667,13 @@
         <v>347191</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>424</v>
@@ -6682,13 +6682,13 @@
         <v>466675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>3274866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>3035</v>
@@ -6718,13 +6718,13 @@
         <v>3197351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>356</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>6145</v>
@@ -6733,13 +6733,13 @@
         <v>6472217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6819,7 +6819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD4D4C57-0E0F-42CC-B691-FA49BE88642A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA9D93-10CE-4B11-ABCB-956231C1E249}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6836,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6943,13 +6943,13 @@
         <v>6868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>448</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -6958,13 +6958,13 @@
         <v>16918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -6973,13 +6973,13 @@
         <v>23786</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>460</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6994,13 @@
         <v>253430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>455</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -7009,13 +7009,13 @@
         <v>254485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>463</v>
+        <v>147</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>822</v>
@@ -7024,13 +7024,13 @@
         <v>507914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7098,13 @@
         <v>30919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>469</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7113,13 +7113,13 @@
         <v>76537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -7128,13 +7128,13 @@
         <v>107456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7149,13 @@
         <v>488378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>606</v>
@@ -7164,13 +7164,13 @@
         <v>478029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
@@ -7179,13 +7179,13 @@
         <v>966408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7253,13 @@
         <v>40310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -7268,13 +7268,13 @@
         <v>65041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -7283,13 +7283,13 @@
         <v>105351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7304,13 @@
         <v>281930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -7319,13 +7319,13 @@
         <v>308243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>724</v>
@@ -7334,13 +7334,13 @@
         <v>590173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7408,13 +7408,13 @@
         <v>35373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>497</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -7423,13 +7423,13 @@
         <v>67332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7438,13 +7438,13 @@
         <v>102705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7459,13 @@
         <v>286867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>461</v>
@@ -7474,13 +7474,13 @@
         <v>361224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -7489,13 +7489,13 @@
         <v>648091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,13 +7563,13 @@
         <v>19143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -7578,13 +7578,13 @@
         <v>42581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7593,13 +7593,13 @@
         <v>61723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7614,13 @@
         <v>177605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -7629,13 +7629,13 @@
         <v>216932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7644,13 +7644,13 @@
         <v>394537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7718,13 +7718,13 @@
         <v>47896</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -7733,13 +7733,13 @@
         <v>76738</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>253</v>
@@ -7748,13 +7748,13 @@
         <v>124635</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7769,13 @@
         <v>229327</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H20" s="7">
         <v>296</v>
@@ -7784,13 +7784,13 @@
         <v>198884</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>578</v>
@@ -7799,13 +7799,13 @@
         <v>428210</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,7 +7861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7873,13 +7873,13 @@
         <v>61887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -7888,13 +7888,13 @@
         <v>271506</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -7903,13 +7903,13 @@
         <v>333393</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7924,13 @@
         <v>565867</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H23" s="7">
         <v>717</v>
@@ -7939,13 +7939,13 @@
         <v>532697</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M23" s="7">
         <v>1247</v>
@@ -7954,13 +7954,13 @@
         <v>1098564</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8016,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8028,13 +8028,13 @@
         <v>52025</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -8043,13 +8043,13 @@
         <v>114928</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -8058,7 +8058,7 @@
         <v>166953</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>570</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>571</v>
@@ -8085,7 +8085,7 @@
         <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -8094,13 +8094,13 @@
         <v>753506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>1604</v>
@@ -8109,13 +8109,13 @@
         <v>1560909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>579</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8183,13 @@
         <v>294421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>582</v>
+        <v>479</v>
       </c>
       <c r="H28" s="7">
         <v>1064</v>
@@ -8198,13 +8198,13 @@
         <v>731583</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M28" s="7">
         <v>1456</v>
@@ -8213,13 +8213,13 @@
         <v>1026004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,10 +8234,10 @@
         <v>3090807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>590</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>591</v>
@@ -8261,7 +8261,7 @@
         <v>7287</v>
       </c>
       <c r="N29" s="7">
-        <v>6194805</v>
+        <v>6194804</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>595</v>
@@ -8312,7 +8312,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D195CA-38EE-4B4C-80FD-E23E5D4D1AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C32E9CF-6953-4355-99EC-AF1256F14D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A8BAB35-6FFE-4618-AD34-4A0CF61A5064}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE903BFB-581E-4326-8086-3F75790067E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>1,23%</t>
   </si>
   <si>
     <t>4,9%</t>
@@ -86,1342 +86,1384 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
   </si>
   <si>
     <t>96,83%</t>
@@ -2244,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8ACFD28-8079-4790-BFA9-8DEF0EF5657F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80CC9AD-0942-47C0-8229-3022C0580F97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2714,7 +2756,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2771,13 @@
         <v>315108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -2744,13 +2786,13 @@
         <v>327318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -2759,13 +2801,13 @@
         <v>642426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2863,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2833,13 +2875,13 @@
         <v>9228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2848,13 +2890,13 @@
         <v>15695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2863,13 +2905,13 @@
         <v>24923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2926,13 @@
         <v>349443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -2899,13 +2941,13 @@
         <v>355761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>721</v>
@@ -2914,13 +2956,13 @@
         <v>705204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +3018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2988,13 +3030,13 @@
         <v>4637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3003,13 +3045,13 @@
         <v>10447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3018,13 +3060,13 @@
         <v>15084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3081,13 @@
         <v>198671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -3054,13 +3096,13 @@
         <v>197221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -3069,13 +3111,13 @@
         <v>395892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,7 +3173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3143,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3158,13 +3200,13 @@
         <v>12061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3173,13 +3215,13 @@
         <v>12061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3236,10 @@
         <v>270811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3209,13 +3251,13 @@
         <v>266083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3224,13 +3266,13 @@
         <v>536894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,7 +3328,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3298,13 +3340,13 @@
         <v>19782</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3313,13 +3355,13 @@
         <v>37055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3328,13 +3370,13 @@
         <v>56836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,13 +3391,13 @@
         <v>595245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>584</v>
@@ -3364,13 +3406,13 @@
         <v>601164</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3379,13 +3421,13 @@
         <v>1196410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3483,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3453,13 +3495,13 @@
         <v>51923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -3468,13 +3510,13 @@
         <v>69152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3483,13 +3525,13 @@
         <v>121075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3546,13 @@
         <v>691872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -3519,13 +3561,13 @@
         <v>714359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1362</v>
@@ -3534,13 +3576,13 @@
         <v>1406231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3650,13 @@
         <v>111838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>218</v>
@@ -3623,13 +3665,13 @@
         <v>226549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -3638,13 +3680,13 @@
         <v>338386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,16 +3698,16 @@
         <v>3098</v>
       </c>
       <c r="D29" s="7">
-        <v>3164706</v>
+        <v>3164705</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
@@ -3674,13 +3716,13 @@
         <v>3152649</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6177</v>
@@ -3689,13 +3731,13 @@
         <v>6317355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,7 +3749,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3751,7 +3793,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2F53C8-D22B-4B6A-892C-6B2A768700E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7954800-AA20-4D15-8145-21A1640F04DA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3792,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,39 +3939,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,39 +3984,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,39 +4029,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4078,13 @@
         <v>25219</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4051,13 +4093,13 @@
         <v>49262</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -4066,13 +4108,13 @@
         <v>74481</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4129,13 @@
         <v>480308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -4102,13 +4144,13 @@
         <v>474503</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>886</v>
@@ -4117,13 +4159,13 @@
         <v>954811</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4233,13 @@
         <v>9108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4206,13 +4248,13 @@
         <v>28669</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4221,13 +4263,13 @@
         <v>37777</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4284,13 @@
         <v>314938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -4257,13 +4299,13 @@
         <v>312351</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -4272,13 +4314,13 @@
         <v>627289</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4376,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4346,13 +4388,13 @@
         <v>28125</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4361,13 +4403,13 @@
         <v>81033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4376,13 +4418,13 @@
         <v>109158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4439,13 @@
         <v>640595</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>550</v>
@@ -4412,13 +4454,13 @@
         <v>595163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1150</v>
@@ -4427,13 +4469,13 @@
         <v>1235758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,7 +4531,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4501,13 +4543,13 @@
         <v>18635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4516,13 +4558,13 @@
         <v>38301</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4531,13 +4573,13 @@
         <v>56935</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4594,13 @@
         <v>193983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -4567,13 +4609,13 @@
         <v>181290</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>356</v>
@@ -4582,13 +4624,13 @@
         <v>375274</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,7 +4686,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4656,13 +4698,13 @@
         <v>13464</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4671,13 +4713,13 @@
         <v>18648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4686,13 +4728,13 @@
         <v>32112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4749,13 @@
         <v>260517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -4722,13 +4764,13 @@
         <v>261383</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -4737,13 +4779,13 @@
         <v>521900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4841,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4811,13 +4853,13 @@
         <v>21246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4826,13 +4868,13 @@
         <v>68542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -4841,13 +4883,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4904,13 @@
         <v>641542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -4877,13 +4919,13 @@
         <v>625311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1173</v>
@@ -4892,13 +4934,13 @@
         <v>1266853</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,7 +4996,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4966,13 +5008,13 @@
         <v>14055</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -4981,13 +5023,13 @@
         <v>66551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -4996,13 +5038,13 @@
         <v>80606</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5059,13 @@
         <v>765043</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -5032,13 +5074,13 @@
         <v>757302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1400</v>
@@ -5047,13 +5089,13 @@
         <v>1522345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5163,13 @@
         <v>129852</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5136,13 +5178,13 @@
         <v>351006</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>441</v>
@@ -5151,13 +5193,13 @@
         <v>480858</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5214,13 @@
         <v>3296927</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2975</v>
@@ -5187,13 +5229,13 @@
         <v>3207303</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>6066</v>
@@ -5202,13 +5244,13 @@
         <v>6504230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,7 +5306,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A3D7B3-C136-4FDC-903C-63F0683D9EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93E327-EB93-41DD-A952-99B940DF5170}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5305,7 +5347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5412,13 +5454,13 @@
         <v>13823</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -5427,13 +5469,13 @@
         <v>38772</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -5442,13 +5484,13 @@
         <v>52596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5505,13 @@
         <v>279938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>242</v>
@@ -5478,13 +5520,13 @@
         <v>249931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>494</v>
@@ -5493,13 +5535,13 @@
         <v>529868</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5609,13 @@
         <v>7652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5582,13 +5624,13 @@
         <v>30353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5597,13 +5639,13 @@
         <v>38005</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5660,13 @@
         <v>494923</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>333</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5633,13 +5675,13 @@
         <v>492731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>925</v>
@@ -5648,13 +5690,13 @@
         <v>987654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5764,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5737,13 +5779,13 @@
         <v>20782</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5752,13 +5794,13 @@
         <v>25666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5815,13 @@
         <v>313680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -5788,13 +5830,13 @@
         <v>315527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -5803,13 +5845,13 @@
         <v>629208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,7 +5907,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5877,13 +5919,13 @@
         <v>19501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5892,13 +5934,13 @@
         <v>51804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5907,13 +5949,13 @@
         <v>71305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5970,13 @@
         <v>350463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5943,13 +5985,13 @@
         <v>335479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
@@ -5958,13 +6000,13 @@
         <v>685942</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,7 +6062,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6032,13 +6074,13 @@
         <v>9505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6047,13 +6089,13 @@
         <v>23124</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -6062,13 +6104,13 @@
         <v>32629</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6125,13 @@
         <v>201716</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -6098,13 +6140,13 @@
         <v>195463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6113,13 +6155,13 @@
         <v>397179</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,7 +6217,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6187,13 +6229,13 @@
         <v>9883</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6202,13 +6244,13 @@
         <v>18096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -6217,13 +6259,13 @@
         <v>27979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6280,13 @@
         <v>253240</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6253,13 +6295,13 @@
         <v>255019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -6268,13 +6310,13 @@
         <v>508259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,7 +6372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6342,13 +6384,13 @@
         <v>27437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -6357,13 +6399,13 @@
         <v>74432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -6372,13 +6414,13 @@
         <v>101868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>40</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,13 +6435,13 @@
         <v>629121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>341</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -6408,13 +6450,13 @@
         <v>616862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>1134</v>
@@ -6423,13 +6465,13 @@
         <v>1245984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,7 +6527,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6497,13 +6539,13 @@
         <v>26799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6512,13 +6554,13 @@
         <v>89828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6527,13 +6569,13 @@
         <v>116628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6590,13 @@
         <v>751784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -6563,13 +6605,13 @@
         <v>736339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>1404</v>
@@ -6578,13 +6620,13 @@
         <v>1488122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6694,13 @@
         <v>119484</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>429</v>
+        <v>133</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -6667,13 +6709,13 @@
         <v>347191</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>424</v>
@@ -6682,13 +6724,13 @@
         <v>466675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,13 +6745,13 @@
         <v>3274866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>3035</v>
@@ -6718,13 +6760,13 @@
         <v>3197351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>6145</v>
@@ -6733,13 +6775,13 @@
         <v>6472217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,7 +6837,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6819,7 +6861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DA9D93-10CE-4B11-ABCB-956231C1E249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9896E0-ED2C-4EC1-BE44-2D1FF57DCFE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6836,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6943,13 +6985,13 @@
         <v>6868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -6958,13 +7000,13 @@
         <v>16918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -6973,13 +7015,13 @@
         <v>23786</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +7036,13 @@
         <v>253430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -7009,13 +7051,13 @@
         <v>254485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>822</v>
@@ -7024,13 +7066,13 @@
         <v>507914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7140,13 @@
         <v>30919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7113,13 +7155,13 @@
         <v>76537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -7128,13 +7170,13 @@
         <v>107456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7191,13 @@
         <v>488378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>606</v>
@@ -7164,13 +7206,13 @@
         <v>478029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
@@ -7179,13 +7221,13 @@
         <v>966408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7295,13 @@
         <v>40310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -7268,13 +7310,13 @@
         <v>65041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -7283,13 +7325,13 @@
         <v>105351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7346,13 @@
         <v>281930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -7319,13 +7361,13 @@
         <v>308243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="M11" s="7">
         <v>724</v>
@@ -7334,13 +7376,13 @@
         <v>590173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7438,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7408,13 +7450,13 @@
         <v>35373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -7423,13 +7465,13 @@
         <v>67332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7438,13 +7480,13 @@
         <v>102705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7501,13 @@
         <v>286867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="H14" s="7">
         <v>461</v>
@@ -7474,13 +7516,13 @@
         <v>361224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -7489,13 +7531,13 @@
         <v>648091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,7 +7593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7563,13 +7605,13 @@
         <v>19143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -7578,13 +7620,13 @@
         <v>42581</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7593,13 +7635,13 @@
         <v>61723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7656,13 @@
         <v>177605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -7629,13 +7671,13 @@
         <v>216932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7644,13 +7686,13 @@
         <v>394537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7718,13 +7760,13 @@
         <v>47896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -7733,13 +7775,13 @@
         <v>76738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="M19" s="7">
         <v>253</v>
@@ -7748,13 +7790,13 @@
         <v>124635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7811,13 @@
         <v>229327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="H20" s="7">
         <v>296</v>
@@ -7784,13 +7826,13 @@
         <v>198884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>578</v>
@@ -7799,13 +7841,13 @@
         <v>428210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,7 +7903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7873,13 +7915,13 @@
         <v>61887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -7888,13 +7930,13 @@
         <v>271506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -7903,13 +7945,13 @@
         <v>333393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7966,13 @@
         <v>565867</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="H23" s="7">
         <v>717</v>
@@ -7939,13 +7981,13 @@
         <v>532697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>1247</v>
@@ -7954,13 +7996,13 @@
         <v>1098564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8028,13 +8070,13 @@
         <v>52025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -8043,13 +8085,13 @@
         <v>114928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -8058,13 +8100,13 @@
         <v>166953</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8079,13 +8121,13 @@
         <v>807403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -8094,13 +8136,13 @@
         <v>753506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="M26" s="7">
         <v>1604</v>
@@ -8109,13 +8151,13 @@
         <v>1560909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8225,13 @@
         <v>294421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H28" s="7">
         <v>1064</v>
@@ -8198,13 +8240,13 @@
         <v>731583</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M28" s="7">
         <v>1456</v>
@@ -8213,13 +8255,13 @@
         <v>1026004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8276,13 @@
         <v>3090807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="H29" s="7">
         <v>4303</v>
@@ -8249,13 +8291,13 @@
         <v>3103998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="M29" s="7">
         <v>7287</v>
@@ -8264,13 +8306,13 @@
         <v>6194804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,7 +8368,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C32E9CF-6953-4355-99EC-AF1256F14D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10F720A-D9DE-4200-8BFF-8F7E0F47281E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE903BFB-581E-4326-8086-3F75790067E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39FB98B3-BDFD-4ABF-9A93-20594A4A11C5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="598">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>1,23%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,41%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>95,17%</t>
   </si>
   <si>
     <t>98,77%</t>
@@ -116,19 +116,19 @@
     <t>93,81%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>11,49%</t>
@@ -152,31 +152,31 @@
     <t>8,82%</t>
   </si>
   <si>
-    <t>14,54%</t>
+    <t>14,64%</t>
   </si>
   <si>
     <t>7,36%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,46%</t>
+    <t>85,36%</t>
   </si>
   <si>
     <t>91,18%</t>
@@ -185,10 +185,10 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,43 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>1,01%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>95,22%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +242,55 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -314,1420 +302,1396 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>5,04%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,17%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
     <t>95,53%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>13,8%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>91,38%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>86,2%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>89,99%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>15,15%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>13,08%</t>
   </si>
   <si>
     <t>87,49%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>82,58%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>86,92%</t>
   </si>
   <si>
     <t>10,98%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>15,04%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>89,02%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>84,96%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>16,41%</t>
   </si>
   <si>
-    <t>20,21%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>16,51%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>79,79%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>83,49%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>27,84%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>22,54%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>82,72%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>72,16%</t>
   </si>
   <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>12,25%</t>
@@ -1736,145 +1700,139 @@
     <t>33,76%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>92,32%</t>
+    <t>92,6%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>92,09%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,79%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>92,21%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80CC9AD-0942-47C0-8229-3022C0580F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610392F-6C15-4184-872B-D0250067FC6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2738,10 +2696,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2750,13 +2708,13 @@
         <v>11832</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2729,13 @@
         <v>315108</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -2786,13 +2744,13 @@
         <v>327318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>632</v>
@@ -2801,13 +2759,13 @@
         <v>642426</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2821,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2833,13 @@
         <v>9228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -2890,13 +2848,13 @@
         <v>15695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -2905,13 +2863,13 @@
         <v>24923</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2884,13 @@
         <v>349443</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>368</v>
@@ -2941,13 +2899,13 @@
         <v>355761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>721</v>
@@ -2956,13 +2914,13 @@
         <v>705204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +2976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3030,13 +2988,13 @@
         <v>4637</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3045,13 +3003,13 @@
         <v>10447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -3060,13 +3018,13 @@
         <v>15084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3039,13 @@
         <v>198671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -3096,13 +3054,13 @@
         <v>197221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -3111,13 +3069,13 @@
         <v>395892</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3131,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3185,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3200,13 +3158,13 @@
         <v>12061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3215,13 +3173,13 @@
         <v>12061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,10 +3194,10 @@
         <v>270811</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>30</v>
@@ -3251,13 +3209,13 @@
         <v>266083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>525</v>
@@ -3266,13 +3224,13 @@
         <v>536894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3286,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3298,13 @@
         <v>19782</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -3355,13 +3313,13 @@
         <v>37055</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -3370,13 +3328,13 @@
         <v>56836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3349,13 @@
         <v>595245</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>584</v>
@@ -3406,13 +3364,13 @@
         <v>601164</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3421,13 +3379,13 @@
         <v>1196410</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3441,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3495,13 +3453,13 @@
         <v>51923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -3510,13 +3468,13 @@
         <v>69152</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3525,13 +3483,13 @@
         <v>121075</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3504,13 @@
         <v>691872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>681</v>
@@ -3561,13 +3519,13 @@
         <v>714359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1362</v>
@@ -3576,13 +3534,13 @@
         <v>1406231</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3608,13 @@
         <v>111838</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>218</v>
@@ -3665,13 +3623,13 @@
         <v>226549</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -3680,13 +3638,13 @@
         <v>338386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,16 +3656,16 @@
         <v>3098</v>
       </c>
       <c r="D29" s="7">
-        <v>3164705</v>
+        <v>3164706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>3079</v>
@@ -3716,28 +3674,28 @@
         <v>3152649</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6177</v>
       </c>
       <c r="N29" s="7">
-        <v>6317355</v>
+        <v>6317354</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3707,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3779,7 +3737,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3793,7 +3751,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3817,7 +3775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7954800-AA20-4D15-8145-21A1640F04DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DEFCE4-FB7E-4AB7-B8A3-43183D41AC19}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,7 +3792,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,39 +3897,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3942,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +3987,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4036,13 @@
         <v>25219</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4093,13 +4051,13 @@
         <v>49262</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>66</v>
@@ -4108,13 +4066,13 @@
         <v>74481</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4087,13 @@
         <v>480308</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -4266,10 +4224,10 @@
         <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4242,13 @@
         <v>314938</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -4299,13 +4257,13 @@
         <v>312351</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>602</v>
@@ -4314,13 +4272,13 @@
         <v>627289</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4388,13 +4346,13 @@
         <v>28125</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -4403,13 +4361,13 @@
         <v>81033</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4418,13 +4376,13 @@
         <v>109158</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4397,13 @@
         <v>640595</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>550</v>
@@ -4454,13 +4412,13 @@
         <v>595163</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1150</v>
@@ -4469,13 +4427,13 @@
         <v>1235758</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4489,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4543,13 +4501,13 @@
         <v>18635</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -4558,13 +4516,13 @@
         <v>38301</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>52</v>
@@ -4573,13 +4531,13 @@
         <v>56935</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4552,13 @@
         <v>193983</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>177</v>
@@ -4609,13 +4567,13 @@
         <v>181290</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>356</v>
@@ -4624,13 +4582,13 @@
         <v>375274</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4644,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4656,13 @@
         <v>13464</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4713,13 +4671,13 @@
         <v>18648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -4728,13 +4686,13 @@
         <v>32112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4707,13 @@
         <v>260517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -4764,13 +4722,13 @@
         <v>261383</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>154</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -4779,13 +4737,13 @@
         <v>521900</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4799,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4853,13 +4811,13 @@
         <v>21246</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -4868,13 +4826,13 @@
         <v>68542</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -4883,13 +4841,13 @@
         <v>89788</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4862,13 @@
         <v>641542</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
         <v>575</v>
@@ -4919,13 +4877,13 @@
         <v>625311</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1173</v>
@@ -4934,13 +4892,13 @@
         <v>1266853</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4954,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5008,13 +4966,13 @@
         <v>14055</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5023,13 +4981,13 @@
         <v>66551</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -5038,13 +4996,13 @@
         <v>80606</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5017,13 @@
         <v>765043</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>696</v>
@@ -5074,13 +5032,13 @@
         <v>757302</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1400</v>
@@ -5089,13 +5047,13 @@
         <v>1522345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5121,13 @@
         <v>129852</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>323</v>
@@ -5178,13 +5136,13 @@
         <v>351006</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>441</v>
@@ -5193,13 +5151,13 @@
         <v>480858</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5172,13 @@
         <v>3296927</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>2975</v>
@@ -5229,13 +5187,13 @@
         <v>3207303</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>6066</v>
@@ -5244,13 +5202,13 @@
         <v>6504230</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5264,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E93E327-EB93-41DD-A952-99B940DF5170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22BB052-C592-4C40-8261-DE3B1544ABC7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5412,13 @@
         <v>13823</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -5469,13 +5427,13 @@
         <v>38772</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -5484,13 +5442,13 @@
         <v>52596</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5463,13 @@
         <v>279938</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>242</v>
@@ -5520,13 +5478,13 @@
         <v>249931</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>494</v>
@@ -5535,13 +5493,13 @@
         <v>529868</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5567,13 @@
         <v>7652</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5624,13 +5582,13 @@
         <v>30353</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5639,13 +5597,13 @@
         <v>38005</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5618,13 @@
         <v>494923</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>458</v>
@@ -5675,13 +5633,13 @@
         <v>492731</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M8" s="7">
         <v>925</v>
@@ -5690,13 +5648,13 @@
         <v>987654</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>345</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>346</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5722,13 @@
         <v>4885</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5779,13 +5737,13 @@
         <v>20782</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5794,13 +5752,13 @@
         <v>25666</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5773,13 @@
         <v>313680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>314</v>
@@ -5830,13 +5788,13 @@
         <v>315527</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>643</v>
@@ -5845,13 +5803,13 @@
         <v>629208</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5865,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5919,13 +5877,13 @@
         <v>19501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -5934,13 +5892,13 @@
         <v>51804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5949,13 +5907,13 @@
         <v>71305</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5928,13 @@
         <v>350463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -5985,13 +5943,13 @@
         <v>335479</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>647</v>
@@ -6000,13 +5958,13 @@
         <v>685942</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,7 +6020,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6074,13 +6032,13 @@
         <v>9505</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6089,13 +6047,13 @@
         <v>23124</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -6104,13 +6062,13 @@
         <v>32629</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6083,13 @@
         <v>201716</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -6140,13 +6098,13 @@
         <v>195463</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6155,13 +6113,13 @@
         <v>397179</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6175,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6229,13 +6187,13 @@
         <v>9883</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6244,13 +6202,13 @@
         <v>18096</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -6259,13 +6217,13 @@
         <v>27979</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6238,13 @@
         <v>253240</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>247</v>
@@ -6295,13 +6253,13 @@
         <v>255019</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>26</v>
       </c>
       <c r="M20" s="7">
         <v>495</v>
@@ -6310,13 +6268,13 @@
         <v>508259</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6330,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6384,13 +6342,13 @@
         <v>27437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>39</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -6399,13 +6357,13 @@
         <v>74432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -6414,13 +6372,13 @@
         <v>101868</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>302</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6393,13 @@
         <v>629121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -6450,13 +6408,13 @@
         <v>616862</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>1134</v>
@@ -6465,13 +6423,13 @@
         <v>1245984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>310</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6485,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6539,13 +6497,13 @@
         <v>26799</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -6554,13 +6512,13 @@
         <v>89828</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>101</v>
@@ -6569,13 +6527,13 @@
         <v>116628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6548,13 @@
         <v>751784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -6605,13 +6563,13 @@
         <v>736339</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>1404</v>
@@ -6620,13 +6578,13 @@
         <v>1488122</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6652,13 @@
         <v>119484</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7">
         <v>303</v>
@@ -6709,13 +6667,13 @@
         <v>347191</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>350</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>424</v>
@@ -6724,13 +6682,13 @@
         <v>466675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6703,13 @@
         <v>3274866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>453</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>3035</v>
@@ -6760,13 +6718,13 @@
         <v>3197351</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>6145</v>
@@ -6775,13 +6733,13 @@
         <v>6472217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6795,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9896E0-ED2C-4EC1-BE44-2D1FF57DCFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F76877-F4E4-4D87-8ECA-08607FB85DD7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,13 +6943,13 @@
         <v>6868</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>462</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -7000,13 +6958,13 @@
         <v>16918</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -7015,13 +6973,13 @@
         <v>23786</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +6994,13 @@
         <v>253430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>254</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>501</v>
@@ -7051,13 +7009,13 @@
         <v>254485</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>822</v>
@@ -7066,13 +7024,13 @@
         <v>507914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7098,13 @@
         <v>30919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>469</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -7155,13 +7113,13 @@
         <v>76537</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M7" s="7">
         <v>139</v>
@@ -7170,13 +7128,13 @@
         <v>107456</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7149,13 @@
         <v>488378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
       <c r="H8" s="7">
         <v>606</v>
@@ -7206,13 +7164,13 @@
         <v>478029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>960</v>
@@ -7221,13 +7179,13 @@
         <v>966408</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7253,13 @@
         <v>40310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H10" s="7">
         <v>114</v>
@@ -7310,13 +7268,13 @@
         <v>65041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -7325,13 +7283,13 @@
         <v>105351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7304,13 @@
         <v>281930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H11" s="7">
         <v>422</v>
@@ -7361,13 +7319,13 @@
         <v>308243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>724</v>
@@ -7376,13 +7334,13 @@
         <v>590173</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>508</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,7 +7396,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7450,13 +7408,13 @@
         <v>35373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -7465,13 +7423,13 @@
         <v>67332</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -7480,13 +7438,13 @@
         <v>102705</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7459,13 @@
         <v>286867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>521</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>461</v>
@@ -7516,13 +7474,13 @@
         <v>361224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>709</v>
@@ -7531,13 +7489,13 @@
         <v>648091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7605,13 +7563,13 @@
         <v>19143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>529</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>100</v>
@@ -7620,13 +7578,13 @@
         <v>42581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -7635,13 +7593,13 @@
         <v>61723</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>534</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7614,13 @@
         <v>177605</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>395</v>
@@ -7671,13 +7629,13 @@
         <v>216932</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>643</v>
@@ -7686,13 +7644,13 @@
         <v>394537</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>543</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7706,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7718,13 @@
         <v>47896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -7775,13 +7733,13 @@
         <v>76738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>253</v>
@@ -7790,13 +7748,13 @@
         <v>124635</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7769,13 @@
         <v>229327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="H20" s="7">
         <v>296</v>
@@ -7826,13 +7784,13 @@
         <v>198884</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>578</v>
@@ -7841,13 +7799,13 @@
         <v>428210</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7915,13 +7873,13 @@
         <v>61887</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
         <v>243</v>
@@ -7930,13 +7888,13 @@
         <v>271506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -7945,13 +7903,13 @@
         <v>333393</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7924,13 @@
         <v>565867</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="H23" s="7">
         <v>717</v>
@@ -7981,13 +7939,13 @@
         <v>532697</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="M23" s="7">
         <v>1247</v>
@@ -7996,13 +7954,13 @@
         <v>1098564</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8016,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8070,13 +8028,13 @@
         <v>52025</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>579</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="H25" s="7">
         <v>157</v>
@@ -8085,13 +8043,13 @@
         <v>114928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>220</v>
@@ -8100,13 +8058,13 @@
         <v>166953</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>584</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8079,13 @@
         <v>807403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>589</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>905</v>
@@ -8136,13 +8094,13 @@
         <v>753506</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="M26" s="7">
         <v>1604</v>
@@ -8151,13 +8109,13 @@
         <v>1560909</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>593</v>
+        <v>98</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8183,13 @@
         <v>294421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>493</v>
+        <v>582</v>
       </c>
       <c r="H28" s="7">
         <v>1064</v>
@@ -8240,13 +8198,13 @@
         <v>731583</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="M28" s="7">
         <v>1456</v>
@@ -8255,13 +8213,13 @@
         <v>1026004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8234,13 @@
         <v>3090807</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="H29" s="7">
         <v>4303</v>
@@ -8291,28 +8249,28 @@
         <v>3103998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="M29" s="7">
         <v>7287</v>
       </c>
       <c r="N29" s="7">
-        <v>6194804</v>
+        <v>6194805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,7 +8312,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8368,7 +8326,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
